--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H2">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N2">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q2">
-        <v>111.6659659819032</v>
+        <v>159.64441920856</v>
       </c>
       <c r="R2">
-        <v>1004.993693837129</v>
+        <v>1436.79977287704</v>
       </c>
       <c r="S2">
-        <v>0.06156308093844072</v>
+        <v>0.07461273246886914</v>
       </c>
       <c r="T2">
-        <v>0.06156308093844073</v>
+        <v>0.07461273246886913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H3">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q3">
-        <v>1.322755826284111</v>
+        <v>1.61380818484</v>
       </c>
       <c r="R3">
-        <v>11.904802436557</v>
+        <v>14.52427366356</v>
       </c>
       <c r="S3">
-        <v>0.0007292546415487054</v>
+        <v>0.0007542427035562914</v>
       </c>
       <c r="T3">
-        <v>0.0007292546415487055</v>
+        <v>0.0007542427035562913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H4">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N4">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q4">
-        <v>31.96777591608578</v>
+        <v>39.0019542898</v>
       </c>
       <c r="R4">
-        <v>287.709983244772</v>
+        <v>351.0175886082</v>
       </c>
       <c r="S4">
-        <v>0.01762430261394835</v>
+        <v>0.01822827503532223</v>
       </c>
       <c r="T4">
-        <v>0.01762430261394836</v>
+        <v>0.01822827503532222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H5">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N5">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O5">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P5">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q5">
-        <v>3.934535712139001</v>
+        <v>2.936453765960001</v>
       </c>
       <c r="R5">
-        <v>35.410821409251</v>
+        <v>26.42808389364</v>
       </c>
       <c r="S5">
-        <v>0.002169167108094992</v>
+        <v>0.001372405251201095</v>
       </c>
       <c r="T5">
-        <v>0.002169167108094992</v>
+        <v>0.001372405251201095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H6">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N6">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O6">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P6">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q6">
-        <v>17.214388276246</v>
+        <v>23.6559062922</v>
       </c>
       <c r="R6">
-        <v>154.929494486214</v>
+        <v>212.9031566298</v>
       </c>
       <c r="S6">
-        <v>0.009490544137038369</v>
+        <v>0.01105601947276787</v>
       </c>
       <c r="T6">
-        <v>0.009490544137038369</v>
+        <v>0.01105601947276787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H7">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I7">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J7">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N7">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q7">
-        <v>42.8381390956399</v>
+        <v>119.68861838844</v>
       </c>
       <c r="R7">
-        <v>385.543251860759</v>
+        <v>1077.19756549596</v>
       </c>
       <c r="S7">
-        <v>0.02361729288962098</v>
+        <v>0.05593865985204705</v>
       </c>
       <c r="T7">
-        <v>0.02361729288962098</v>
+        <v>0.05593865985204703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
         <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J8">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N8">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q8">
-        <v>655.8403737558991</v>
+        <v>768.5264727611581</v>
       </c>
       <c r="R8">
-        <v>5902.563363803092</v>
+        <v>6916.738254850424</v>
       </c>
       <c r="S8">
-        <v>0.3615743942856767</v>
+        <v>0.3591848709253052</v>
       </c>
       <c r="T8">
-        <v>0.3615743942856767</v>
+        <v>0.3591848709253051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
         <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J9">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q9">
-        <v>7.768854797159555</v>
+        <v>7.768854797159554</v>
       </c>
       <c r="R9">
-        <v>69.91969317443601</v>
+        <v>69.91969317443599</v>
       </c>
       <c r="S9">
-        <v>0.004283083323293304</v>
+        <v>0.003630916053587144</v>
       </c>
       <c r="T9">
-        <v>0.004283083323293305</v>
+        <v>0.003630916053587143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H10">
         <v>13.997732</v>
       </c>
       <c r="I10">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J10">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N10">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q10">
-        <v>187.7542357744729</v>
+        <v>187.7549776542689</v>
       </c>
       <c r="R10">
-        <v>1689.788121970256</v>
+        <v>1689.79479888842</v>
       </c>
       <c r="S10">
-        <v>0.1035116573960609</v>
+        <v>0.08775071491296652</v>
       </c>
       <c r="T10">
-        <v>0.1035116573960609</v>
+        <v>0.0877507149129665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H11">
         <v>13.997732</v>
       </c>
       <c r="I11">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J11">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N11">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O11">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P11">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q11">
-        <v>23.108449824572</v>
+        <v>14.13605603232044</v>
       </c>
       <c r="R11">
-        <v>207.976048421148</v>
+        <v>127.224504290884</v>
       </c>
       <c r="S11">
-        <v>0.01274002651033867</v>
+        <v>0.00660674373794781</v>
       </c>
       <c r="T11">
-        <v>0.01274002651033867</v>
+        <v>0.006606743737947809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H12">
         <v>13.997732</v>
       </c>
       <c r="I12">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J12">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N12">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O12">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P12">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q12">
-        <v>101.104134476408</v>
+        <v>113.8792719021533</v>
       </c>
       <c r="R12">
-        <v>909.9372102876721</v>
+        <v>1024.91344711938</v>
       </c>
       <c r="S12">
-        <v>0.05574018868910174</v>
+        <v>0.05322355576416778</v>
       </c>
       <c r="T12">
-        <v>0.05574018868910174</v>
+        <v>0.05322355576416777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H13">
         <v>13.997732</v>
       </c>
       <c r="I13">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J13">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N13">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q13">
-        <v>251.5984248955925</v>
+        <v>576.1796884334306</v>
       </c>
       <c r="R13">
-        <v>2264.385824060332</v>
+        <v>5185.617195900875</v>
       </c>
       <c r="S13">
-        <v>0.1387098930245386</v>
+        <v>0.2692880913733489</v>
       </c>
       <c r="T13">
-        <v>0.1387098930245386</v>
+        <v>0.2692880913733489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H14">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N14">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q14">
-        <v>0.1614565793917778</v>
+        <v>0.06280976695644444</v>
       </c>
       <c r="R14">
-        <v>1.453109214526</v>
+        <v>0.5652879026080001</v>
       </c>
       <c r="S14">
-        <v>8.901337464586703E-05</v>
+        <v>2.935529072413654E-05</v>
       </c>
       <c r="T14">
-        <v>8.901337464586705E-05</v>
+        <v>2.935529072413654E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H15">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q15">
-        <v>0.001912557950888889</v>
+        <v>0.0006349292791111111</v>
       </c>
       <c r="R15">
-        <v>0.017213021558</v>
+        <v>0.005714363512</v>
       </c>
       <c r="S15">
-        <v>1.054421182807953E-06</v>
+        <v>2.967457846245159E-07</v>
       </c>
       <c r="T15">
-        <v>1.054421182807953E-06</v>
+        <v>2.967457846245158E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H16">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N16">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q16">
-        <v>0.04622185197422222</v>
+        <v>0.01534474973777778</v>
       </c>
       <c r="R16">
-        <v>0.415996667768</v>
+        <v>0.13810274764</v>
       </c>
       <c r="S16">
-        <v>2.54827833099552E-05</v>
+        <v>7.171648797136116E-06</v>
       </c>
       <c r="T16">
-        <v>2.54827833099552E-05</v>
+        <v>7.171648797136115E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H17">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I17">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J17">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N17">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O17">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P17">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q17">
-        <v>0.005688901466000001</v>
+        <v>0.001155304880888889</v>
       </c>
       <c r="R17">
-        <v>0.051200113194</v>
+        <v>0.010397743928</v>
       </c>
       <c r="S17">
-        <v>3.136374618018621E-06</v>
+        <v>5.399528178002191E-07</v>
       </c>
       <c r="T17">
-        <v>3.136374618018621E-06</v>
+        <v>5.39952817800219E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H18">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I18">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J18">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N18">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O18">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P18">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q18">
-        <v>0.024890092724</v>
+        <v>0.009307071106666667</v>
       </c>
       <c r="R18">
-        <v>0.224010834516</v>
+        <v>0.08376363996000001</v>
       </c>
       <c r="S18">
-        <v>1.372227230973165E-05</v>
+        <v>4.349829514824827E-06</v>
       </c>
       <c r="T18">
-        <v>1.372227230973165E-05</v>
+        <v>4.349829514824826E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H19">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I19">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J19">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N19">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q19">
-        <v>0.06193918930511112</v>
+        <v>0.04708974022133333</v>
       </c>
       <c r="R19">
-        <v>0.5574527037460001</v>
+        <v>0.423807661992</v>
       </c>
       <c r="S19">
-        <v>3.414798135601966E-05</v>
+        <v>2.200824937433516E-05</v>
       </c>
       <c r="T19">
-        <v>3.414798135601967E-05</v>
+        <v>2.200824937433515E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H20">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N20">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q20">
-        <v>180.219276999704</v>
+        <v>56.03213191124755</v>
       </c>
       <c r="R20">
-        <v>1621.973492997336</v>
+        <v>504.289187201228</v>
       </c>
       <c r="S20">
-        <v>0.0993575243722702</v>
+        <v>0.02618763930916122</v>
       </c>
       <c r="T20">
-        <v>0.09935752437227022</v>
+        <v>0.02618763930916122</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H21">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q21">
-        <v>2.134814279032</v>
+        <v>0.5664157478268887</v>
       </c>
       <c r="R21">
-        <v>19.213328511288</v>
+        <v>5.097741730441999</v>
       </c>
       <c r="S21">
-        <v>0.001176954348560286</v>
+        <v>0.0002647247355609162</v>
       </c>
       <c r="T21">
-        <v>0.001176954348560286</v>
+        <v>0.0002647247355609161</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H22">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I22">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J22">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N22">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q22">
-        <v>51.59324429987199</v>
+        <v>13.68893856983222</v>
       </c>
       <c r="R22">
-        <v>464.339198698848</v>
+        <v>123.20044712849</v>
       </c>
       <c r="S22">
-        <v>0.02844411049311579</v>
+        <v>0.006397775232965429</v>
       </c>
       <c r="T22">
-        <v>0.0284441104931158</v>
+        <v>0.006397775232965427</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H23">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I23">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J23">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N23">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O23">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P23">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q23">
-        <v>6.350002663176</v>
+        <v>1.030639001233111</v>
       </c>
       <c r="R23">
-        <v>57.150023968584</v>
+        <v>9.275751011097999</v>
       </c>
       <c r="S23">
-        <v>0.003500849381231989</v>
+        <v>0.0004816879440710531</v>
       </c>
       <c r="T23">
-        <v>0.003500849381231989</v>
+        <v>0.000481687944071053</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H24">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I24">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J24">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N24">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O24">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P24">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q24">
-        <v>27.782543963664</v>
+        <v>8.302769795623332</v>
       </c>
       <c r="R24">
-        <v>250.042895672976</v>
+        <v>74.72492816061001</v>
       </c>
       <c r="S24">
-        <v>0.0153169230004066</v>
+        <v>0.003880450970867601</v>
       </c>
       <c r="T24">
-        <v>0.0153169230004066</v>
+        <v>0.0038804509708676</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H25">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I25">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J25">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N25">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q25">
-        <v>69.137076708584</v>
+        <v>42.00841148762466</v>
       </c>
       <c r="R25">
-        <v>622.233690377256</v>
+        <v>378.0757033886219</v>
       </c>
       <c r="S25">
-        <v>0.03811628200079802</v>
+        <v>0.01963339766781052</v>
       </c>
       <c r="T25">
-        <v>0.03811628200079802</v>
+        <v>0.01963339766781052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.001163</v>
       </c>
       <c r="I26">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J26">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N26">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q26">
-        <v>0.05449042421144443</v>
+        <v>0.06385293616288888</v>
       </c>
       <c r="R26">
-        <v>0.490413817903</v>
+        <v>0.5746764254660001</v>
       </c>
       <c r="S26">
-        <v>3.004136816980364E-05</v>
+        <v>2.984283488826118E-05</v>
       </c>
       <c r="T26">
-        <v>3.004136816980365E-05</v>
+        <v>2.984283488826118E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.001163</v>
       </c>
       <c r="I27">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J27">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,10 +2117,10 @@
         <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q27">
         <v>0.0006454744332222221</v>
@@ -2129,10 +2129,10 @@
         <v>0.005809269898999999</v>
       </c>
       <c r="S27">
-        <v>3.558594995953711E-07</v>
+        <v>3.016742548236993E-07</v>
       </c>
       <c r="T27">
-        <v>3.558594995953711E-07</v>
+        <v>3.016742548236992E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>0.001163</v>
       </c>
       <c r="I28">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J28">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N28">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q28">
-        <v>0.01559953971155555</v>
+        <v>0.01559960135055555</v>
       </c>
       <c r="R28">
-        <v>0.140395857404</v>
+        <v>0.140396412155</v>
       </c>
       <c r="S28">
-        <v>8.600254494915233E-06</v>
+        <v>7.290758348836802E-06</v>
       </c>
       <c r="T28">
-        <v>8.600254494915236E-06</v>
+        <v>7.290758348836801E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.001163</v>
       </c>
       <c r="I29">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J29">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N29">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O29">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P29">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q29">
-        <v>0.001919962973</v>
+        <v>0.001174492636777778</v>
       </c>
       <c r="R29">
-        <v>0.017279666757</v>
+        <v>0.010570433731</v>
       </c>
       <c r="S29">
-        <v>1.05850367984784E-06</v>
+        <v>5.489205656482995E-07</v>
       </c>
       <c r="T29">
-        <v>1.05850367984784E-06</v>
+        <v>5.489205656482994E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.001163</v>
       </c>
       <c r="I30">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J30">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N30">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O30">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P30">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q30">
-        <v>0.008400225721999999</v>
+        <v>0.009461646588333332</v>
       </c>
       <c r="R30">
-        <v>0.075602031498</v>
+        <v>0.085154819295</v>
       </c>
       <c r="S30">
-        <v>4.631167352355746E-06</v>
+        <v>4.422073186836777E-06</v>
       </c>
       <c r="T30">
-        <v>4.631167352355747E-06</v>
+        <v>4.422073186836776E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.001163</v>
       </c>
       <c r="I31">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J31">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N31">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q31">
-        <v>0.02090402703477778</v>
+        <v>0.04787182506766666</v>
       </c>
       <c r="R31">
-        <v>0.188136243313</v>
+        <v>0.4308464256089999</v>
       </c>
       <c r="S31">
-        <v>1.15246959712858E-05</v>
+        <v>2.237377099855925E-05</v>
       </c>
       <c r="T31">
-        <v>1.15246959712858E-05</v>
+        <v>2.237377099855925E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H32">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I32">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J32">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N32">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q32">
-        <v>21.43455567420466</v>
+        <v>1.3588651505</v>
       </c>
       <c r="R32">
-        <v>192.911001067842</v>
+        <v>12.2297863545</v>
       </c>
       <c r="S32">
-        <v>0.01181718417287886</v>
+        <v>0.0006350904243202617</v>
       </c>
       <c r="T32">
-        <v>0.01181718417287886</v>
+        <v>0.0006350904243202616</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H33">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I33">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J33">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q33">
-        <v>0.2539062206873333</v>
+        <v>0.01373645075</v>
       </c>
       <c r="R33">
-        <v>2.285155986186</v>
+        <v>0.12362805675</v>
       </c>
       <c r="S33">
-        <v>0.0001399822146121148</v>
+        <v>6.419980917357315E-06</v>
       </c>
       <c r="T33">
-        <v>0.0001399822146121148</v>
+        <v>6.419980917357314E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H34">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I34">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J34">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N34">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q34">
-        <v>6.136292885917332</v>
+        <v>0.33197775875</v>
       </c>
       <c r="R34">
-        <v>55.22663597325599</v>
+        <v>2.98779982875</v>
       </c>
       <c r="S34">
-        <v>0.00338302805403509</v>
+        <v>0.0001551558633995794</v>
       </c>
       <c r="T34">
-        <v>0.003383028054035092</v>
+        <v>0.0001551558633995794</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H35">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I35">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J35">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N35">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O35">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P35">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q35">
-        <v>0.755243766822</v>
+        <v>0.02499457675</v>
       </c>
       <c r="R35">
-        <v>6.797193901397999</v>
+        <v>0.22495119075</v>
       </c>
       <c r="S35">
-        <v>0.0004163769393500856</v>
+        <v>1.168167153894705E-05</v>
       </c>
       <c r="T35">
-        <v>0.0004163769393500856</v>
+        <v>1.168167153894704E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H36">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I36">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J36">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N36">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O36">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P36">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q36">
-        <v>3.304343992908</v>
+        <v>0.20135490375</v>
       </c>
       <c r="R36">
-        <v>29.739095936172</v>
+        <v>1.81219413375</v>
       </c>
       <c r="S36">
-        <v>0.001821733192339133</v>
+        <v>9.410688854188327E-05</v>
       </c>
       <c r="T36">
-        <v>0.001821733192339133</v>
+        <v>9.410688854188326E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.152494</v>
+        <v>0.00825</v>
       </c>
       <c r="H37">
-        <v>0.4574819999999999</v>
+        <v>0.02475</v>
       </c>
       <c r="I37">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="J37">
-        <v>0.02211170178932514</v>
+        <v>0.001378594839220472</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N37">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q37">
-        <v>8.222885723064667</v>
+        <v>1.01876841825</v>
       </c>
       <c r="R37">
-        <v>74.005971507582</v>
+        <v>9.16891576425</v>
       </c>
       <c r="S37">
-        <v>0.004533397216109862</v>
+        <v>0.0004761400105024434</v>
       </c>
       <c r="T37">
-        <v>0.004533397216109863</v>
+        <v>0.0004761400105024432</v>
       </c>
     </row>
   </sheetData>
